--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_70.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,310 +488,312 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:00:10.120000', '0:00:35.880000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:41.920000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5588235294117647</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E/3', 'A', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:00:28.395907', '0:00:32.322199')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -794,411 +801,375 @@
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:36.640000', '0:00:38.520000'), ('0:00:36.340000', '0:00:37.980000'), ('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:00:47.140000', '0:00:55.200000'), ('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:09.920000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:11.060000', '0:00:17.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1053361053361053</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(46.06, 53.66)]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:25.260000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:12.394648', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.38, 16.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.4, 13.72)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
